--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_18_8.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_18_8.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1383964.065891302</v>
+        <v>-1386523.336458858</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.493767343</v>
       </c>
     </row>
     <row r="9">
@@ -662,22 +662,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>5.942445933867994</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>410.9662774206981</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>295.0640301736143</v>
       </c>
       <c r="I2" t="n">
-        <v>43.2945117796236</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -716,10 +716,10 @@
         <v>250.9987361002815</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>74.81589963975784</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -756,7 +756,7 @@
         <v>89.82709352349997</v>
       </c>
       <c r="I3" t="n">
-        <v>9.512185486736385</v>
+        <v>9.512185486736371</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -814,16 +814,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>101.6772932135576</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -862,16 +862,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>89.83072347163693</v>
+        <v>89.8307234716369</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.6343371202345</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>134.0256269807852</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -902,16 +902,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>75.83680089291231</v>
       </c>
       <c r="I5" t="n">
         <v>41.57692977292598</v>
@@ -947,13 +947,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>49.76058429341278</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -1063,10 +1063,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
@@ -1099,28 +1099,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>233.2586774652419</v>
+        <v>261.8794243584269</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1136,7 +1136,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1145,13 +1145,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>403.5144610370114</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,7 +1184,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
@@ -1193,13 +1193,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>282.698806888639</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1227,10 +1227,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1288,13 +1288,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -1303,13 +1303,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>82.70057996958639</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,28 +1336,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>5.348319023253157</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1370,7 +1370,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710074</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1528,7 +1528,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1573,19 +1573,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>178.5134655978075</v>
+        <v>27.24739666248536</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1610,7 +1610,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>354.683041620682</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1765,7 +1765,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -1774,7 +1774,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1813,7 +1813,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>55.49215756129632</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1822,7 +1822,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>104.7777418077815</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -2002,10 +2002,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>129.1078928223854</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -2020,7 +2020,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,13 +2050,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>199.190522777868</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2147,7 +2147,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2242,19 +2242,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>98.99704524587868</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>145.2857567969021</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2302,7 +2302,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -2482,10 +2482,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>113.5413580759693</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2539,7 +2539,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>199.6970586308202</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2603,10 +2603,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881286</v>
@@ -2716,22 +2716,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>19.91555826189153</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2770,7 +2770,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>113.6427030833202</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2792,13 +2792,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710086</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2950,13 +2950,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>28.75188085812005</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2965,10 +2965,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>71.79687029691078</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3029,7 +3029,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710095</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3187,19 +3187,19 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C34" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D34" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E34" t="n">
         <v>122.1493151545295</v>
       </c>
       <c r="F34" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G34" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H34" t="n">
         <v>116.0100653541842</v>
@@ -3232,16 +3232,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S34" t="n">
-        <v>156.7416385096049</v>
+        <v>156.7416385096041</v>
       </c>
       <c r="T34" t="n">
         <v>193.1208028352486</v>
       </c>
       <c r="U34" t="n">
-        <v>261.8998268972044</v>
+        <v>261.8998268972045</v>
       </c>
       <c r="V34" t="n">
         <v>227.8529958317883</v>
@@ -3250,7 +3250,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X34" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y34" t="n">
         <v>194.3000058600551</v>
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3424,7 +3424,7 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C37" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D37" t="n">
         <v>124.3308255261727</v>
@@ -3433,10 +3433,10 @@
         <v>122.1493151545295</v>
       </c>
       <c r="F37" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G37" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H37" t="n">
         <v>116.0100653541842</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
@@ -3478,7 +3478,7 @@
         <v>193.1208028352486</v>
       </c>
       <c r="U37" t="n">
-        <v>261.8998268972044</v>
+        <v>261.8998268972045</v>
       </c>
       <c r="V37" t="n">
         <v>227.8529958317883</v>
@@ -3487,7 +3487,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X37" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y37" t="n">
         <v>194.3000058600551</v>
@@ -3503,7 +3503,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710079</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3661,19 +3661,19 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C40" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D40" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E40" t="n">
         <v>122.1493151545295</v>
       </c>
       <c r="F40" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G40" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H40" t="n">
         <v>116.0100653541842</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808199</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
@@ -3715,7 +3715,7 @@
         <v>193.1208028352486</v>
       </c>
       <c r="U40" t="n">
-        <v>261.8998268972044</v>
+        <v>261.8998268972045</v>
       </c>
       <c r="V40" t="n">
         <v>227.8529958317883</v>
@@ -3724,7 +3724,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X40" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y40" t="n">
         <v>194.3000058600551</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3901,7 +3901,7 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E43" t="n">
         <v>122.1493151545295</v>
@@ -3913,10 +3913,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808193</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4135,25 +4135,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C46" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D46" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F46" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G46" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I46" t="n">
-        <v>56.9811888265258</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,16 +4180,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U46" t="n">
-        <v>261.8998268972044</v>
+        <v>261.8998268972045</v>
       </c>
       <c r="V46" t="n">
         <v>227.8529958317883</v>
@@ -4198,7 +4198,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X46" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y46" t="n">
         <v>194.3000058600551</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1197.284403637215</v>
+        <v>1143.418555766024</v>
       </c>
       <c r="C2" t="n">
-        <v>828.3218866968029</v>
+        <v>774.4560388256125</v>
       </c>
       <c r="D2" t="n">
-        <v>822.3194160565322</v>
+        <v>774.4560388256127</v>
       </c>
       <c r="E2" t="n">
-        <v>822.3194160565322</v>
+        <v>774.4560388256127</v>
       </c>
       <c r="F2" t="n">
-        <v>822.3194160565322</v>
+        <v>363.4701340360051</v>
       </c>
       <c r="G2" t="n">
-        <v>407.201964116433</v>
+        <v>363.4701340360051</v>
       </c>
       <c r="H2" t="n">
-        <v>109.1574891935902</v>
+        <v>65.42565911316237</v>
       </c>
       <c r="I2" t="n">
-        <v>65.42565911316234</v>
+        <v>65.42565911316237</v>
       </c>
       <c r="J2" t="n">
-        <v>250.5613272725632</v>
+        <v>250.5613272725623</v>
       </c>
       <c r="K2" t="n">
-        <v>578.7702206183949</v>
+        <v>578.7702206183942</v>
       </c>
       <c r="L2" t="n">
-        <v>1022.844136887446</v>
+        <v>1022.844136887445</v>
       </c>
       <c r="M2" t="n">
-        <v>1548.631370064183</v>
+        <v>1548.631370064182</v>
       </c>
       <c r="N2" t="n">
-        <v>2087.540198746181</v>
+        <v>2087.54019874618</v>
       </c>
       <c r="O2" t="n">
         <v>2583.081262767916</v>
       </c>
       <c r="P2" t="n">
-        <v>2971.513095303805</v>
+        <v>2971.513095303807</v>
       </c>
       <c r="Q2" t="n">
-        <v>3215.036478301003</v>
+        <v>3215.036478301004</v>
       </c>
       <c r="R2" t="n">
-        <v>3271.282955658117</v>
+        <v>3271.282955658118</v>
       </c>
       <c r="S2" t="n">
-        <v>3159.966809007347</v>
+        <v>3159.966809007348</v>
       </c>
       <c r="T2" t="n">
-        <v>2953.792066077313</v>
+        <v>2953.792066077314</v>
       </c>
       <c r="U2" t="n">
-        <v>2700.257989208342</v>
+        <v>2700.257989208344</v>
       </c>
       <c r="V2" t="n">
-        <v>2700.257989208342</v>
+        <v>2369.195101864773</v>
       </c>
       <c r="W2" t="n">
-        <v>2347.489333938228</v>
+        <v>2293.623486067037</v>
       </c>
       <c r="X2" t="n">
-        <v>1974.023575677148</v>
+        <v>1920.157727805958</v>
       </c>
       <c r="Y2" t="n">
-        <v>1583.884243701336</v>
+        <v>1530.018395830146</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3149953501908</v>
+        <v>1647.371745645391</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8619660690638</v>
+        <v>1472.918716364264</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9275564078125</v>
+        <v>1323.984306703013</v>
       </c>
       <c r="E3" t="n">
-        <v>448.690101402357</v>
+        <v>1164.746851697557</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1555434292419</v>
+        <v>1018.212293724442</v>
       </c>
       <c r="G3" t="n">
-        <v>165.7683651841082</v>
+        <v>881.8251154793082</v>
       </c>
       <c r="H3" t="n">
-        <v>75.03392728158293</v>
+        <v>791.090677576783</v>
       </c>
       <c r="I3" t="n">
-        <v>65.42565911316234</v>
+        <v>781.4824094083625</v>
       </c>
       <c r="J3" t="n">
-        <v>156.8733478056105</v>
+        <v>872.9300981008107</v>
       </c>
       <c r="K3" t="n">
-        <v>391.3268380794818</v>
+        <v>1107.383588374682</v>
       </c>
       <c r="L3" t="n">
-        <v>752.9010302656274</v>
+        <v>1468.957780560828</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.197926366257</v>
+        <v>1910.254676661458</v>
       </c>
       <c r="N3" t="n">
-        <v>1661.583283102522</v>
+        <v>2377.640033397723</v>
       </c>
       <c r="O3" t="n">
-        <v>2066.929778176383</v>
+        <v>2782.986528471583</v>
       </c>
       <c r="P3" t="n">
-        <v>2372.923010208138</v>
+        <v>3116.653779959892</v>
       </c>
       <c r="Q3" t="n">
-        <v>2527.552185906364</v>
+        <v>3271.282955658118</v>
       </c>
       <c r="R3" t="n">
-        <v>2555.226205362918</v>
+        <v>3271.282955658118</v>
       </c>
       <c r="S3" t="n">
-        <v>2425.341079122718</v>
+        <v>3141.397829417918</v>
       </c>
       <c r="T3" t="n">
-        <v>2232.601027250337</v>
+        <v>2948.657777545537</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.53159630069</v>
+        <v>2720.58834659589</v>
       </c>
       <c r="V3" t="n">
-        <v>1769.379488068947</v>
+        <v>2485.436238364147</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.142131340745</v>
+        <v>2231.198881635946</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.290631135213</v>
+        <v>2023.347381430413</v>
       </c>
       <c r="Y3" t="n">
-        <v>1099.530332370259</v>
+        <v>1815.587082665459</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2260.697086232564</v>
+        <v>2305.905843235608</v>
       </c>
       <c r="C4" t="n">
-        <v>2091.760903304657</v>
+        <v>2136.969660307701</v>
       </c>
       <c r="D4" t="n">
-        <v>1989.056566725306</v>
+        <v>2136.969660307701</v>
       </c>
       <c r="E4" t="n">
-        <v>1989.056566725306</v>
+        <v>1989.056566725308</v>
       </c>
       <c r="F4" t="n">
-        <v>1842.166619227396</v>
+        <v>1842.166619227397</v>
       </c>
       <c r="G4" t="n">
-        <v>1674.443596350563</v>
+        <v>1674.443596350565</v>
       </c>
       <c r="H4" t="n">
-        <v>1528.046935440985</v>
+        <v>1528.046935440986</v>
       </c>
       <c r="I4" t="n">
         <v>1430.114202621746</v>
       </c>
       <c r="J4" t="n">
-        <v>1473.838067726845</v>
+        <v>1473.838067726846</v>
       </c>
       <c r="K4" t="n">
-        <v>1675.526646248735</v>
+        <v>1675.526646248737</v>
       </c>
       <c r="L4" t="n">
-        <v>1989.145022412495</v>
+        <v>1989.145022412497</v>
       </c>
       <c r="M4" t="n">
-        <v>2330.200750630627</v>
+        <v>2330.200750630628</v>
       </c>
       <c r="N4" t="n">
-        <v>2668.581552350619</v>
+        <v>2668.58155235062</v>
       </c>
       <c r="O4" t="n">
-        <v>2965.114695744368</v>
+        <v>2965.114695744369</v>
       </c>
       <c r="P4" t="n">
-        <v>3195.329345372345</v>
+        <v>3195.329345372346</v>
       </c>
       <c r="Q4" t="n">
-        <v>3271.282955658117</v>
+        <v>3271.282955658118</v>
       </c>
       <c r="R4" t="n">
-        <v>3180.544851141312</v>
+        <v>3180.544851141313</v>
       </c>
       <c r="S4" t="n">
-        <v>3180.544851141312</v>
+        <v>3180.544851141313</v>
       </c>
       <c r="T4" t="n">
-        <v>3180.544851141312</v>
+        <v>2958.691985363298</v>
       </c>
       <c r="U4" t="n">
-        <v>3180.544851141312</v>
+        <v>2823.312564170586</v>
       </c>
       <c r="V4" t="n">
-        <v>3180.544851141312</v>
+        <v>2823.312564170586</v>
       </c>
       <c r="W4" t="n">
-        <v>2891.127681104351</v>
+        <v>2533.895394133625</v>
       </c>
       <c r="X4" t="n">
-        <v>2663.138130206334</v>
+        <v>2305.905843235608</v>
       </c>
       <c r="Y4" t="n">
-        <v>2442.345551062804</v>
+        <v>2305.905843235608</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1555.338782035317</v>
+        <v>2124.186667467492</v>
       </c>
       <c r="C5" t="n">
-        <v>1186.376265094905</v>
+        <v>1755.22415052708</v>
       </c>
       <c r="D5" t="n">
-        <v>828.1105664881544</v>
+        <v>1396.95845192033</v>
       </c>
       <c r="E5" t="n">
-        <v>828.1105664881544</v>
+        <v>1011.170199322086</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>600.1842945324781</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>185.1118443774746</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
@@ -4571,7 +4571,7 @@
         <v>589.210621081055</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
         <v>1573.776739001388</v>
@@ -4583,34 +4583,34 @@
         <v>2623.528026939507</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q5" t="n">
         <v>3266.588755052367</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609169</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136264</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520486</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794323</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="V5" t="n">
-        <v>2705.54371233633</v>
+        <v>2884.252265792694</v>
       </c>
       <c r="W5" t="n">
-        <v>2705.54371233633</v>
+        <v>2884.252265792694</v>
       </c>
       <c r="X5" t="n">
-        <v>2332.07795407525</v>
+        <v>2510.786507531614</v>
       </c>
       <c r="Y5" t="n">
-        <v>1941.938622099438</v>
+        <v>2510.786507531614</v>
       </c>
     </row>
     <row r="6">
@@ -4620,19 +4620,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
         <v>176.021302392778</v>
@@ -4662,10 +4662,10 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
         <v>2564.909189125856</v>
@@ -4677,7 +4677,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4686,10 +4686,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4699,19 +4699,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>944.7237329438971</v>
+        <v>923.9108438165264</v>
       </c>
       <c r="C7" t="n">
-        <v>775.7875500159902</v>
+        <v>754.9746608886195</v>
       </c>
       <c r="D7" t="n">
-        <v>625.6709106036544</v>
+        <v>604.8580214762837</v>
       </c>
       <c r="E7" t="n">
-        <v>477.7578170212613</v>
+        <v>456.9449278938906</v>
       </c>
       <c r="F7" t="n">
-        <v>477.7578170212613</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="G7" t="n">
         <v>310.0549803959803</v>
@@ -4747,28 +4747,28 @@
         <v>1927.294548088492</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.46409084602</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S7" t="n">
-        <v>1837.46409084602</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T7" t="n">
-        <v>1837.46409084602</v>
+        <v>1705.527932658018</v>
       </c>
       <c r="U7" t="n">
-        <v>1837.46409084602</v>
+        <v>1416.425065783662</v>
       </c>
       <c r="V7" t="n">
-        <v>1582.779602640133</v>
+        <v>1416.425065783662</v>
       </c>
       <c r="W7" t="n">
-        <v>1347.164776917667</v>
+        <v>1151.900394714544</v>
       </c>
       <c r="X7" t="n">
-        <v>1347.164776917667</v>
+        <v>923.9108438165264</v>
       </c>
       <c r="Y7" t="n">
-        <v>1126.372197774137</v>
+        <v>923.9108438165264</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2345.167438673965</v>
+        <v>1681.836054204828</v>
       </c>
       <c r="C8" t="n">
-        <v>1976.204921733553</v>
+        <v>1312.873537264416</v>
       </c>
       <c r="D8" t="n">
-        <v>1617.939223126803</v>
+        <v>1312.873537264416</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>927.0852846661721</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>516.0993798765646</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609169</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136264</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136264</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U8" t="n">
-        <v>2961.7846764101</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V8" t="n">
-        <v>2630.72178906653</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W8" t="n">
-        <v>2630.72178906653</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X8" t="n">
-        <v>2630.72178906653</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="Y8" t="n">
-        <v>2345.167438673965</v>
+        <v>1681.836054204828</v>
       </c>
     </row>
     <row r="9">
@@ -4872,22 +4872,22 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064535</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
         <v>160.1893859228006</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031474</v>
+        <v>398.4535849031475</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158128</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4936,40 +4936,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>675.2351809199101</v>
+        <v>1007.446783179745</v>
       </c>
       <c r="C10" t="n">
-        <v>675.2351809199101</v>
+        <v>838.5106002518381</v>
       </c>
       <c r="D10" t="n">
-        <v>675.2351809199101</v>
+        <v>688.3939608395024</v>
       </c>
       <c r="E10" t="n">
-        <v>527.322087337517</v>
+        <v>540.4808672571093</v>
       </c>
       <c r="F10" t="n">
-        <v>380.4321398396066</v>
+        <v>393.5909197591989</v>
       </c>
       <c r="G10" t="n">
-        <v>212.7293032143256</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218339</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L10" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N10" t="n">
         <v>1317.747152581905</v>
@@ -4981,31 +4981,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1921.892205640762</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1730.206321467588</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1508.439706037114</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1219.336839162758</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V10" t="n">
-        <v>964.6523509568708</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="W10" t="n">
-        <v>675.2351809199101</v>
+        <v>1637.877378051532</v>
       </c>
       <c r="X10" t="n">
-        <v>675.2351809199101</v>
+        <v>1409.887827153515</v>
       </c>
       <c r="Y10" t="n">
-        <v>675.2351809199101</v>
+        <v>1189.095248009985</v>
       </c>
     </row>
     <row r="11">
@@ -5045,13 +5045,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
@@ -5173,7 +5173,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>874.8686257536381</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="C13" t="n">
         <v>705.9324428257312</v>
@@ -5200,10 +5200,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
@@ -5218,31 +5218,31 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2083.791617318188</v>
+        <v>2169.539922596168</v>
       </c>
       <c r="U13" t="n">
-        <v>1794.716390662386</v>
+        <v>1880.464695940366</v>
       </c>
       <c r="V13" t="n">
-        <v>1794.716390662386</v>
+        <v>1625.780207734479</v>
       </c>
       <c r="W13" t="n">
-        <v>1505.299220625425</v>
+        <v>1336.363037697518</v>
       </c>
       <c r="X13" t="n">
-        <v>1277.309669727408</v>
+        <v>1108.373486799501</v>
       </c>
       <c r="Y13" t="n">
-        <v>1056.517090583878</v>
+        <v>887.5809076559709</v>
       </c>
     </row>
     <row r="14">
@@ -5252,10 +5252,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5270,7 +5270,7 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192616</v>
@@ -5285,10 +5285,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5303,25 +5303,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="15">
@@ -5349,22 +5349,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N15" t="n">
         <v>1344.266747951538</v>
@@ -5410,16 +5410,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>929.7309773356194</v>
+        <v>951.777212765616</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356194</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232836</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408905</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F16" t="n">
         <v>484.8112968429802</v>
@@ -5431,55 +5431,55 @@
         <v>175.9033664000582</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
         <v>435.7419440038342</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797722</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910807</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570816</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S16" t="n">
-        <v>2323.864695427313</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T16" t="n">
-        <v>2104.263230450254</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U16" t="n">
-        <v>2104.263230450254</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="V16" t="n">
-        <v>1849.578742244367</v>
+        <v>1871.624977674364</v>
       </c>
       <c r="W16" t="n">
-        <v>1560.161572207407</v>
+        <v>1582.207807637403</v>
       </c>
       <c r="X16" t="n">
-        <v>1332.172021309389</v>
+        <v>1354.218256739386</v>
       </c>
       <c r="Y16" t="n">
-        <v>1111.379442165859</v>
+        <v>1133.425677595856</v>
       </c>
     </row>
     <row r="17">
@@ -5510,25 +5510,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5589,31 +5589,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1186.520756890282</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N18" t="n">
-        <v>1814.118720444889</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>784.5811134804959</v>
       </c>
       <c r="C19" t="n">
-        <v>513.8536007400712</v>
+        <v>615.644930552589</v>
       </c>
       <c r="D19" t="n">
-        <v>383.4415877881669</v>
+        <v>465.5282911402533</v>
       </c>
       <c r="E19" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="F19" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5689,34 +5689,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q19" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2160.315914855603</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1959.113366595131</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1704.428878389244</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1415.011708352283</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>1187.022157454266</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>966.2295783107356</v>
       </c>
     </row>
     <row r="20">
@@ -5726,19 +5726,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
@@ -5765,7 +5765,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5783,19 +5783,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="21">
@@ -5826,31 +5826,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>352.5519571452614</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>949.9304447718133</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N21" t="n">
-        <v>1577.52840832642</v>
+        <v>1702.079034721979</v>
       </c>
       <c r="O21" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>653.7474797708871</v>
+        <v>741.8431516380887</v>
       </c>
       <c r="C22" t="n">
-        <v>484.8112968429802</v>
+        <v>572.9069687101818</v>
       </c>
       <c r="D22" t="n">
-        <v>484.8112968429802</v>
+        <v>422.790329297846</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429802</v>
+        <v>422.790329297846</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429802</v>
+        <v>275.9003817999356</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H22" t="n">
         <v>175.9033664000583</v>
@@ -5911,7 +5911,7 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
         <v>826.1405381797745</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235164</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1056.188523744657</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y22" t="n">
-        <v>835.3959446011269</v>
+        <v>923.4916164683284</v>
       </c>
     </row>
     <row r="23">
@@ -5963,34 +5963,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168609</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111727</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6005,34 +6005,34 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="24">
@@ -6063,25 +6063,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>2299.457522348532</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6121,16 +6121,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>721.7774158311364</v>
+        <v>983.3556038098236</v>
       </c>
       <c r="C25" t="n">
-        <v>552.8412329032295</v>
+        <v>814.4194208819167</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908938</v>
+        <v>664.302781469581</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908938</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F25" t="n">
         <v>402.7245934908938</v>
@@ -6139,28 +6139,28 @@
         <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>2157.887856924458</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1903.203368718571</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611859</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X25" t="n">
-        <v>942.5699949746665</v>
+        <v>1385.796647783593</v>
       </c>
       <c r="Y25" t="n">
-        <v>721.7774158311364</v>
+        <v>1165.004068640063</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192611</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,34 +6297,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>95.5840502527391</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803939</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516146</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>1074.481071167374</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793925</v>
+        <v>1074.481071167374</v>
       </c>
       <c r="N27" t="n">
-        <v>2299.457522348532</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>653.7474797708873</v>
+        <v>580.8993044876695</v>
       </c>
       <c r="C28" t="n">
-        <v>484.8112968429803</v>
+        <v>411.9631215597626</v>
       </c>
       <c r="D28" t="n">
-        <v>484.8112968429803</v>
+        <v>261.8464821474267</v>
       </c>
       <c r="E28" t="n">
-        <v>484.8112968429803</v>
+        <v>113.9333885650337</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578603</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V28" t="n">
-        <v>1573.595244679635</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W28" t="n">
-        <v>1284.178074642674</v>
+        <v>1211.329899359457</v>
       </c>
       <c r="X28" t="n">
-        <v>1056.188523744657</v>
+        <v>983.3403484614394</v>
       </c>
       <c r="Y28" t="n">
-        <v>835.395944601127</v>
+        <v>762.5477693179092</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="30">
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,31 +6534,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.5840502527391</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803939</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516146</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167374</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>1074.481071167374</v>
       </c>
       <c r="N30" t="n">
-        <v>2297.690135143765</v>
+        <v>1702.07903472198</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6595,46 +6595,46 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>800.5007694647277</v>
       </c>
       <c r="C31" t="n">
-        <v>513.8536007400712</v>
+        <v>631.5645865368208</v>
       </c>
       <c r="D31" t="n">
-        <v>484.8112968429803</v>
+        <v>481.4479471244852</v>
       </c>
       <c r="E31" t="n">
-        <v>484.8112968429803</v>
+        <v>333.5348535420922</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>333.5348535420922</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578601</v>
+        <v>166.3387542569722</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>166.3387542569722</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797746</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
@@ -6643,28 +6643,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1975.033022579363</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1720.348534373476</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1430.931364336515</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>1202.941813438498</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>982.1492342949674</v>
       </c>
     </row>
     <row r="32">
@@ -6674,10 +6674,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551877</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D32" t="n">
         <v>1590.547811004713</v>
@@ -6686,64 +6686,64 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I32" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852258</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398596</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492581</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474786</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466576</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123005</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852891</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591811</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615999</v>
       </c>
     </row>
     <row r="33">
@@ -6762,7 +6762,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,34 +6771,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273912</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803939</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516146</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167374</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438176</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319323</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656817</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150022</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942654</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580112</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345474</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H34" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384021</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797194</v>
       </c>
       <c r="J34" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K34" t="n">
-        <v>483.8255460380729</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M34" t="n">
         <v>1344.317444979286</v>
@@ -6871,34 +6871,34 @@
         <v>1785.769117656414</v>
       </c>
       <c r="O34" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P34" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q34" t="n">
         <v>2639.297491717215</v>
       </c>
       <c r="R34" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S34" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T34" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U34" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V34" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W34" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X34" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y34" t="n">
         <v>1084.076049400516</v>
@@ -6917,13 +6917,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6932,25 +6932,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192603</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111695</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075811</v>
+        <v>852.852361107579</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332385</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7011,13 +7011,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516145</v>
       </c>
       <c r="L36" t="n">
         <v>1074.481071167373</v>
@@ -7026,16 +7026,16 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>2283.159972732779</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,10 +7069,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319319</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656812</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D37" t="n">
         <v>656.9646031150023</v>
@@ -7081,10 +7081,10 @@
         <v>533.5814564942655</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580114</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H37" t="n">
         <v>151.373419438402</v>
@@ -7093,13 +7093,13 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K37" t="n">
         <v>483.8255460380728</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M37" t="n">
         <v>1344.317444979286</v>
@@ -7111,7 +7111,7 @@
         <v>2179.340199382518</v>
       </c>
       <c r="P37" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q37" t="n">
         <v>2639.297491717215</v>
@@ -7120,25 +7120,25 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T37" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V37" t="n">
         <v>1748.685508594055</v>
       </c>
       <c r="W37" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X37" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y37" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="38">
@@ -7166,16 +7166,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192611</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7190,22 +7190,22 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V38" t="n">
         <v>3820.749612123003</v>
@@ -7236,7 +7236,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,34 +7245,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468473</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319325</v>
+        <v>926.9575315319323</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656819</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150024</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942656</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580111</v>
       </c>
       <c r="G40" t="n">
         <v>268.5553036345477</v>
@@ -7330,13 +7330,13 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954147</v>
       </c>
       <c r="K40" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380726</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311322</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979286</v>
@@ -7354,10 +7354,10 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T40" t="n">
         <v>2243.385329532432</v>
@@ -7406,25 +7406,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192603</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111695</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.852361107579</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332385</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516145</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>1702.07903472198</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2253.988764961267</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319317</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656811</v>
+        <v>782.5512955656819</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150016</v>
+        <v>656.9646031150024</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942648</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H43" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311318</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M43" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979287</v>
       </c>
       <c r="N43" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O43" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P43" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q43" t="n">
         <v>2639.297491717215</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T43" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594054</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W43" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y43" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="44">
@@ -7622,19 +7622,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
@@ -7643,25 +7643,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192383</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111695</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.852361107579</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332385</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7679,19 +7679,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516145</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>691.1951506745238</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1318.79311422913</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319321</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656815</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942652</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580112</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345475</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
@@ -7804,13 +7804,13 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J46" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K46" t="n">
         <v>483.8255460380728</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -7840,7 +7840,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V46" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W46" t="n">
         <v>1483.798285518751</v>
@@ -8073,13 +8073,13 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>27.95355500661918</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>29.57646828340013</v>
+        <v>1.622913276780253</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8316,7 +8316,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -9422,7 +9422,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -22550,22 +22550,22 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>348.740595686815</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>410.9662774206981</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>43.29451177962358</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22604,10 +22604,10 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>274.4250690776552</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -22702,16 +22702,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>46.93817980465478</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -22753,13 +22753,13 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>190.1172987294701</v>
+        <v>190.11729872947</v>
       </c>
       <c r="T4" t="n">
-        <v>219.6343371202345</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2129282631967</v>
+        <v>152.1873012824115</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -22771,7 +22771,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -23416,7 +23416,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23461,19 +23461,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>38.89198472948078</v>
+        <v>190.1580536648029</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23653,7 +23653,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23662,7 +23662,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23701,7 +23701,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>125.5341284403483</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23710,7 +23710,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>147.3599015160465</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23890,10 +23890,10 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>19.50758019582696</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23908,7 +23908,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,13 +23938,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>86.9939516113761</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24130,19 +24130,19 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>66.52709304639016</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24172,13 +24172,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>72.11969353038614</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24190,7 +24190,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24370,10 +24370,10 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>32.89260457059991</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24382,7 +24382,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,13 +24409,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>26.01259675821698</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24604,22 +24604,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>125.5054897610397</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24658,7 +24658,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24838,13 +24838,13 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>119.8635921600923</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24853,10 +24853,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>9.468966021654722</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,13 +24883,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25123,7 +25123,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>7.673861546209082e-13</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1061099.783185459</v>
+        <v>1061099.78318546</v>
       </c>
     </row>
     <row r="3">
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>135401.7127154574</v>
+        <v>135401.7127154573</v>
       </c>
       <c r="C2" t="n">
         <v>164208.3539728567</v>
@@ -26323,19 +26323,19 @@
         <v>161429.3199380012</v>
       </c>
       <c r="F2" t="n">
-        <v>161429.3199380011</v>
+        <v>161429.3199380012</v>
       </c>
       <c r="G2" t="n">
         <v>161429.3199380012</v>
       </c>
       <c r="H2" t="n">
-        <v>161429.3199380013</v>
+        <v>161429.3199380012</v>
       </c>
       <c r="I2" t="n">
         <v>161429.3199380012</v>
       </c>
       <c r="J2" t="n">
-        <v>161429.3199380012</v>
+        <v>161429.3199380013</v>
       </c>
       <c r="K2" t="n">
         <v>161429.3199380012</v>
@@ -26344,16 +26344,16 @@
         <v>164208.3539728567</v>
       </c>
       <c r="M2" t="n">
-        <v>164208.3539728568</v>
+        <v>164208.3539728567</v>
       </c>
       <c r="N2" t="n">
-        <v>164208.3539728568</v>
+        <v>164208.3539728567</v>
       </c>
       <c r="O2" t="n">
         <v>164208.3539728568</v>
       </c>
       <c r="P2" t="n">
-        <v>164208.3539728569</v>
+        <v>164208.3539728567</v>
       </c>
     </row>
     <row r="3">
@@ -26366,13 +26366,13 @@
         <v>1313514.533081207</v>
       </c>
       <c r="C3" t="n">
-        <v>14479.05232074548</v>
+        <v>14479.0523207452</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1.412581696058623e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073555</v>
+        <v>325412.4618073551</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>213977.8894125531</v>
+        <v>213977.8894125533</v>
       </c>
       <c r="K3" t="n">
-        <v>3495.241841022609</v>
+        <v>3495.241841022551</v>
       </c>
       <c r="L3" t="n">
-        <v>19427.71799363177</v>
+        <v>19427.71799363191</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551193</v>
+        <v>85055.02793551161</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>12350.05787405599</v>
+        <v>12350.05787405598</v>
       </c>
       <c r="C4" t="n">
-        <v>90964.01098815718</v>
+        <v>90964.01098815717</v>
       </c>
       <c r="D4" t="n">
-        <v>90964.0109881572</v>
+        <v>90964.01098815708</v>
       </c>
       <c r="E4" t="n">
         <v>11776.97621680582</v>
       </c>
       <c r="F4" t="n">
-        <v>11776.97621680582</v>
+        <v>11776.97621680583</v>
       </c>
       <c r="G4" t="n">
         <v>11776.97621680582</v>
       </c>
       <c r="H4" t="n">
-        <v>11776.97621680586</v>
+        <v>11776.97621680582</v>
       </c>
       <c r="I4" t="n">
         <v>11776.97621680582</v>
       </c>
       <c r="J4" t="n">
-        <v>11776.97621680582</v>
+        <v>11776.97621680576</v>
       </c>
       <c r="K4" t="n">
-        <v>11776.97621680584</v>
+        <v>11776.97621680577</v>
       </c>
       <c r="L4" t="n">
-        <v>19767.83547989928</v>
+        <v>19767.83547989918</v>
       </c>
       <c r="M4" t="n">
-        <v>19767.83547989931</v>
+        <v>19767.83547989927</v>
       </c>
       <c r="N4" t="n">
-        <v>19767.83547989928</v>
+        <v>19767.83547989925</v>
       </c>
       <c r="O4" t="n">
         <v>19767.83547989928</v>
       </c>
       <c r="P4" t="n">
-        <v>19767.83547989929</v>
+        <v>19767.83547989927</v>
       </c>
     </row>
     <row r="5">
@@ -26491,10 +26491,10 @@
         <v>101122.5298239071</v>
       </c>
       <c r="J5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="K5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="L5" t="n">
         <v>103164.1158539154</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1297329.518142917</v>
+        <v>-1297689.601158635</v>
       </c>
       <c r="C6" t="n">
-        <v>-49168.64989743926</v>
+        <v>-49168.64989743898</v>
       </c>
       <c r="D6" t="n">
-        <v>-34689.59757669382</v>
+        <v>-34689.59757669388</v>
       </c>
       <c r="E6" t="n">
-        <v>-276882.6479100672</v>
+        <v>-276917.3858355025</v>
       </c>
       <c r="F6" t="n">
-        <v>48529.81389728822</v>
+        <v>48495.07597185254</v>
       </c>
       <c r="G6" t="n">
-        <v>48529.81389728824</v>
+        <v>48495.07597185261</v>
       </c>
       <c r="H6" t="n">
-        <v>48529.8138972883</v>
+        <v>48495.07597185255</v>
       </c>
       <c r="I6" t="n">
-        <v>48529.81389728827</v>
+        <v>48495.07597185255</v>
       </c>
       <c r="J6" t="n">
-        <v>-165448.0755152648</v>
+        <v>-165482.8134407006</v>
       </c>
       <c r="K6" t="n">
-        <v>45034.57205626565</v>
+        <v>44999.83413083003</v>
       </c>
       <c r="L6" t="n">
-        <v>21848.68464541031</v>
+        <v>21848.68464541021</v>
       </c>
       <c r="M6" t="n">
-        <v>-43778.62529646987</v>
+        <v>-43778.62529646954</v>
       </c>
       <c r="N6" t="n">
-        <v>41276.40263904215</v>
+        <v>41276.40263904206</v>
       </c>
       <c r="O6" t="n">
-        <v>41276.40263904215</v>
+        <v>41276.40263904208</v>
       </c>
       <c r="P6" t="n">
-        <v>41276.40263904218</v>
+        <v>41276.40263904203</v>
       </c>
     </row>
   </sheetData>
@@ -26713,19 +26713,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
     </row>
     <row r="3">
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>817.8207389145292</v>
+        <v>817.8207389145296</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022923</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022923</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26811,19 +26811,19 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26960,13 +26960,13 @@
         <v>1078.694448491203</v>
       </c>
       <c r="C3" t="n">
-        <v>11.08225210209548</v>
+        <v>11.08225210209525</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>817.8207389145292</v>
+        <v>817.8207389145296</v>
       </c>
       <c r="C4" t="n">
-        <v>13.58071648776308</v>
+        <v>13.58071648776286</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973561</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>817.8207389145292</v>
+        <v>817.82073891453</v>
       </c>
       <c r="K4" t="n">
-        <v>13.58071648776308</v>
+        <v>13.58071648776286</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-13</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973561</v>
+        <v>341.3068326973548</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>817.8207389145292</v>
+        <v>817.8207389145296</v>
       </c>
       <c r="K4" t="n">
-        <v>13.58071648776308</v>
+        <v>13.58071648776286</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973561</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27622,16 +27622,16 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>218.7709634944081</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27667,13 +27667,13 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>277.9916741767221</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27682,7 +27682,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27783,10 +27783,10 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -27819,28 +27819,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>53.26432087134913</v>
+        <v>24.64357397816411</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27856,7 +27856,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27865,10 +27865,10 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>7.407264616442035</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27904,7 +27904,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -27913,13 +27913,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>103.5391317674146</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,13 +28008,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28023,13 +28023,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>83.32522828944184</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,28 +28056,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>83.58383364679419</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28330,7 +28330,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>9.285372470912988e-13</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -28512,7 +28512,7 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>-7.965435133550907e-13</v>
       </c>
       <c r="M16" t="n">
         <v>0</v>
@@ -28867,7 +28867,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -29518,7 +29518,7 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
     </row>
     <row r="35">
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
     </row>
   </sheetData>
@@ -31039,7 +31039,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.336460094436992</v>
+        <v>4.336460094436993</v>
       </c>
       <c r="H2" t="n">
         <v>44.41077194215286</v>
@@ -31048,37 +31048,37 @@
         <v>167.1813777907823</v>
       </c>
       <c r="J2" t="n">
-        <v>368.051629940222</v>
+        <v>368.0516299402221</v>
       </c>
       <c r="K2" t="n">
-        <v>551.61398573774</v>
+        <v>551.6139857377401</v>
       </c>
       <c r="L2" t="n">
-        <v>684.3259263528662</v>
+        <v>684.3259263528663</v>
       </c>
       <c r="M2" t="n">
-        <v>761.44444855731</v>
+        <v>761.4444485573102</v>
       </c>
       <c r="N2" t="n">
-        <v>773.7654158006292</v>
+        <v>773.7654158006294</v>
       </c>
       <c r="O2" t="n">
-        <v>730.6447407365713</v>
+        <v>730.6447407365715</v>
       </c>
       <c r="P2" t="n">
-        <v>623.588382155158</v>
+        <v>623.5883821551581</v>
       </c>
       <c r="Q2" t="n">
-        <v>468.2889050231331</v>
+        <v>468.2889050231332</v>
       </c>
       <c r="R2" t="n">
         <v>272.400161407178</v>
       </c>
       <c r="S2" t="n">
-        <v>98.81708440198305</v>
+        <v>98.81708440198308</v>
       </c>
       <c r="T2" t="n">
-        <v>18.98285406339794</v>
+        <v>18.98285406339795</v>
       </c>
       <c r="U2" t="n">
         <v>0.3469168075549593</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.320210700528247</v>
+        <v>2.320210700528248</v>
       </c>
       <c r="H3" t="n">
-        <v>22.40835071299649</v>
+        <v>22.4083507129965</v>
       </c>
       <c r="I3" t="n">
-        <v>79.88444736467869</v>
+        <v>79.88444736467871</v>
       </c>
       <c r="J3" t="n">
-        <v>219.2090293863113</v>
+        <v>219.2090293863114</v>
       </c>
       <c r="K3" t="n">
-        <v>374.6631463217038</v>
+        <v>374.6631463217039</v>
       </c>
       <c r="L3" t="n">
-        <v>503.7808365335565</v>
+        <v>503.7808365335566</v>
       </c>
       <c r="M3" t="n">
-        <v>587.8884744277053</v>
+        <v>587.8884744277054</v>
       </c>
       <c r="N3" t="n">
-        <v>603.4481330290549</v>
+        <v>603.448133029055</v>
       </c>
       <c r="O3" t="n">
-        <v>552.0371485594553</v>
+        <v>552.0371485594554</v>
       </c>
       <c r="P3" t="n">
-        <v>443.0584801736791</v>
+        <v>443.0584801736792</v>
       </c>
       <c r="Q3" t="n">
-        <v>296.1728606498864</v>
+        <v>296.1728606498865</v>
       </c>
       <c r="R3" t="n">
         <v>144.0565906871837</v>
       </c>
       <c r="S3" t="n">
-        <v>43.09689612604</v>
+        <v>43.09689612604001</v>
       </c>
       <c r="T3" t="n">
-        <v>9.352077341164291</v>
+        <v>9.352077341164293</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1526454408242268</v>
+        <v>0.1526454408242269</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31203,7 +31203,7 @@
         <v>17.29447820695733</v>
       </c>
       <c r="I4" t="n">
-        <v>58.49706943621145</v>
+        <v>58.49706943621147</v>
       </c>
       <c r="J4" t="n">
         <v>137.5247004248538</v>
@@ -31212,7 +31212,7 @@
         <v>225.9953287166814</v>
       </c>
       <c r="L4" t="n">
-        <v>289.1962132889365</v>
+        <v>289.1962132889366</v>
       </c>
       <c r="M4" t="n">
         <v>304.9168586120296</v>
@@ -31230,13 +31230,13 @@
         <v>162.8828617221716</v>
       </c>
       <c r="R4" t="n">
-        <v>87.46266790553256</v>
+        <v>87.46266790553258</v>
       </c>
       <c r="S4" t="n">
-        <v>33.8992993075022</v>
+        <v>33.89929930750221</v>
       </c>
       <c r="T4" t="n">
-        <v>8.311252308046967</v>
+        <v>8.311252308046969</v>
       </c>
       <c r="U4" t="n">
         <v>0.1061010932942168</v>
@@ -31513,43 +31513,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I8" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
@@ -31598,40 +31598,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31671,13 +31671,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
@@ -31686,16 +31686,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
         <v>237.6785118802169</v>
@@ -31704,16 +31704,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -32075,7 +32075,7 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
         <v>475.1391886422585</v>
@@ -32087,7 +32087,7 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>556.7959610899863</v>
+        <v>405.6377363145776</v>
       </c>
       <c r="O15" t="n">
         <v>700.0808204437243</v>
@@ -32309,25 +32309,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>377.6350660745956</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>225.4828684302377</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
         <v>561.8765786214698</v>
@@ -32336,7 +32336,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32479,7 +32479,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175679</v>
       </c>
       <c r="N20" t="n">
         <v>981.2715114159425</v>
@@ -32546,34 +32546,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>301.6445156724565</v>
       </c>
       <c r="P21" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32698,43 +32698,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J23" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,34 +32777,34 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>595.327537312171</v>
       </c>
       <c r="O24" t="n">
-        <v>398.7616643558013</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -32813,13 +32813,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H26" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817581</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,10 +33014,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
@@ -33026,37 +33026,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>366.8427442359092</v>
       </c>
       <c r="O27" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33093,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P28" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H29" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U29" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O30" t="n">
-        <v>400.5469039565762</v>
+        <v>338.6542681503472</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33330,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P31" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H32" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M33" t="n">
-        <v>734.2678383622665</v>
+        <v>444.2274915982882</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33567,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P34" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33646,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H35" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663262</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,10 +33725,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
@@ -33737,37 +33737,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N36" t="n">
-        <v>748.8168776781358</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558009</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,49 +33804,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P37" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H38" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M39" t="n">
-        <v>734.2678383622665</v>
+        <v>446.0127311990634</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34041,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P40" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H41" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663262</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M42" t="n">
-        <v>734.2678383622665</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>436.0678650906006</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34278,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P43" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H44" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.015579806721</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558009</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34515,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P46" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>187.0057254135357</v>
+        <v>187.0057254135358</v>
       </c>
       <c r="K2" t="n">
-        <v>331.5241346927594</v>
+        <v>331.5241346927596</v>
       </c>
       <c r="L2" t="n">
-        <v>448.559511382879</v>
+        <v>448.5595113828791</v>
       </c>
       <c r="M2" t="n">
-        <v>531.0982153300373</v>
+        <v>531.0982153300375</v>
       </c>
       <c r="N2" t="n">
-        <v>544.3523522040382</v>
+        <v>544.3523522040384</v>
       </c>
       <c r="O2" t="n">
-        <v>500.5465293148845</v>
+        <v>500.5465293148848</v>
       </c>
       <c r="P2" t="n">
-        <v>392.3553863998885</v>
+        <v>392.3553863998886</v>
       </c>
       <c r="Q2" t="n">
-        <v>245.9832151486836</v>
+        <v>245.9832151486837</v>
       </c>
       <c r="R2" t="n">
-        <v>56.81462359304584</v>
+        <v>56.81462359304589</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,31 +34775,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>92.37140271964461</v>
+        <v>92.37140271964466</v>
       </c>
       <c r="K3" t="n">
-        <v>236.8217073473448</v>
+        <v>236.821707347345</v>
       </c>
       <c r="L3" t="n">
-        <v>365.2264567536823</v>
+        <v>365.2264567536824</v>
       </c>
       <c r="M3" t="n">
-        <v>445.754440505687</v>
+        <v>445.7544405056871</v>
       </c>
       <c r="N3" t="n">
-        <v>472.1064209457217</v>
+        <v>472.1064209457218</v>
       </c>
       <c r="O3" t="n">
-        <v>409.4409041150109</v>
+        <v>409.440904115011</v>
       </c>
       <c r="P3" t="n">
-        <v>309.0840727593488</v>
+        <v>337.0376277659681</v>
       </c>
       <c r="Q3" t="n">
-        <v>156.1910865638649</v>
+        <v>156.191086563865</v>
       </c>
       <c r="R3" t="n">
-        <v>27.95355500661985</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>44.16552030818102</v>
+        <v>44.16552030818104</v>
       </c>
       <c r="K4" t="n">
-        <v>203.7258368907985</v>
+        <v>203.7258368907986</v>
       </c>
       <c r="L4" t="n">
-        <v>316.7862385492526</v>
+        <v>316.7862385492527</v>
       </c>
       <c r="M4" t="n">
-        <v>344.5007355738701</v>
+        <v>344.5007355738702</v>
       </c>
       <c r="N4" t="n">
         <v>341.7987896161536</v>
       </c>
       <c r="O4" t="n">
-        <v>299.5284276704531</v>
+        <v>299.5284276704532</v>
       </c>
       <c r="P4" t="n">
         <v>232.5400501292698</v>
       </c>
       <c r="Q4" t="n">
-        <v>76.7208184704772</v>
+        <v>76.72081847047723</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,10 +35328,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
         <v>319.7573721701981</v>
@@ -35343,13 +35343,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35723,7 +35723,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
         <v>337.2977496678996</v>
@@ -35735,7 +35735,7 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>425.454249006653</v>
+        <v>274.2960242312443</v>
       </c>
       <c r="O15" t="n">
         <v>557.4845759992799</v>
@@ -35808,7 +35808,7 @@
         <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191316</v>
+        <v>394.3420143191294</v>
       </c>
       <c r="M16" t="n">
         <v>426.2724270010451</v>
@@ -35957,25 +35957,25 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>235.5010321525773</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>82.88662398579324</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
         <v>427.9021712071395</v>
@@ -35984,7 +35984,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36127,7 +36127,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N20" t="n">
         <v>751.8584478193516</v>
@@ -36142,7 +36142,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>261.3487819164541</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>159.048271228012</v>
       </c>
       <c r="P21" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,7 +36431,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36440,19 +36440,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>463.9858252288377</v>
       </c>
       <c r="O24" t="n">
-        <v>256.1654199113569</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J26" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367776</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,34 +36668,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>235.5010321525759</v>
       </c>
       <c r="O27" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J29" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,31 +36905,31 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O30" t="n">
-        <v>257.9506595121318</v>
+        <v>196.0580237059027</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J32" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M33" t="n">
-        <v>592.1338044402481</v>
+        <v>302.0934576762699</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37227,25 +37227,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K34" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L34" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M34" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N34" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O34" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P34" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q34" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J35" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396399</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N36" t="n">
-        <v>617.4751655948025</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>256.1654199113564</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37464,25 +37464,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N37" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O37" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P37" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J38" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,31 +37619,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M39" t="n">
-        <v>592.1338044402481</v>
+        <v>303.878697277045</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37707,19 +37707,19 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N40" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O40" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P40" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J41" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396399</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M42" t="n">
-        <v>592.1338044402481</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>302.0934576762704</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37938,25 +37938,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N43" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O43" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P43" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236315111</v>
       </c>
       <c r="J44" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113564</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38178,16 +38178,16 @@
         <v>288.6172359016747</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N46" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P46" t="n">
         <v>319.9164207986647</v>
